--- a/hoanghamobile/src/resources/data.xlsx
+++ b/hoanghamobile/src/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Check_Password" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="95">
   <si>
     <t xml:space="preserve">Number </t>
   </si>
@@ -258,9 +258,6 @@
     <t>Tuyển dụng</t>
   </si>
   <si>
-    <t>Bản mobile</t>
-  </si>
-  <si>
     <t>Giới thiệu</t>
   </si>
   <si>
@@ -270,31 +267,53 @@
     <t>Trung tâm bảo hành</t>
   </si>
   <si>
-    <t>Hệ thống 79 siêu thị</t>
-  </si>
-  <si>
     <t>Tra cứu đơn hàng</t>
   </si>
   <si>
-    <t>Click vào Bản mobile</t>
-  </si>
-  <si>
-    <t>Hoàng Hà Mobile</t>
-  </si>
-  <si>
     <t>Giới thiệu công ty</t>
   </si>
   <si>
-    <t>Hệ thống 79 siêu thị Hoàng Hà Mobile trên toàn quốc</t>
-  </si>
-  <si>
     <t>Kiểm tra đơn hàng của bạn</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Hệ thống 78 siêu thị</t>
+  </si>
+  <si>
+    <t>Hệ thống 78 siêu thị Hoàng Hà Mobile trên toàn quốc</t>
+  </si>
+  <si>
+    <t>Chọn Giới thiệu</t>
+  </si>
+  <si>
+    <t>Chọn Sản phẩm đã xem</t>
+  </si>
+  <si>
+    <t>Chọn Trung tâm bảo hành</t>
+  </si>
+  <si>
+    <t>Chọn Tuyển dụng</t>
+  </si>
+  <si>
+    <t>Chọn Tra cứu đơn hàng</t>
+  </si>
+  <si>
+    <t>Chọn Hệ thống 78 siêu thị</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -645,11 +664,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="37.69921875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.69921875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.09765625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="37.69921875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -729,17 +748,17 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.69921875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.59765625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.69921875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.3984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -967,16 +986,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.19921875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.19921875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="46.69921875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -987,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1009,6 +1028,9 @@
       <c r="D2" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1023,6 +1045,9 @@
       <c r="D3" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1037,6 +1062,9 @@
       <c r="D4" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1051,6 +1079,9 @@
       <c r="D5" s="5" t="s">
         <v>58</v>
       </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1065,6 +1096,9 @@
       <c r="D6" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1079,6 +1113,9 @@
       <c r="D7" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1093,6 +1130,9 @@
       <c r="D8" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1107,6 +1147,9 @@
       <c r="D9" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1121,6 +1164,9 @@
       <c r="D10" s="5" t="s">
         <v>72</v>
       </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1135,6 +1181,9 @@
       <c r="D11" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1149,6 +1198,9 @@
       <c r="D12" s="5" t="s">
         <v>65</v>
       </c>
+      <c r="E12" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1163,6 +1215,9 @@
       <c r="D13" s="5" t="s">
         <v>74</v>
       </c>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1176,6 +1231,9 @@
       </c>
       <c r="D14" s="5" t="s">
         <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1200,18 +1258,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.19921875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="47.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1235,81 +1293,187 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
       <c r="C6" t="s">
         <v>77</v>
       </c>
       <c r="D6" t="s">
         <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
       <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
         <v>83</v>
       </c>
-      <c r="D7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="5"/>
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="5"/>
+      <c r="E12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="5"/>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="5"/>
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="5"/>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="5"/>
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="5"/>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="5"/>
+      <c r="E19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="5"/>
+      <c r="E21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hoanghamobile/src/resources/data.xlsx
+++ b/hoanghamobile/src/resources/data.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Check_Password" sheetId="1" r:id="rId1"/>
     <sheet name="Check_ThuongHieu" sheetId="2" r:id="rId2"/>
     <sheet name="Check_Menu" sheetId="3" r:id="rId3"/>
     <sheet name="Check_Title" sheetId="4" r:id="rId4"/>
+    <sheet name="Test" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
   <si>
     <t xml:space="preserve">Number </t>
   </si>
@@ -303,17 +304,34 @@
     <t>Chọn Hệ thống 78 siêu thị</t>
   </si>
   <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>FAILED</t>
+    <t>Chọn FB Hoàng Hà Mobile</t>
+  </si>
+  <si>
+    <t>Hoàng Hà Mobile - Trang chủ | Facebook</t>
+  </si>
+  <si>
+    <t>Hoàng Hà Angels (@hoanghaangels) TikTok | Xem các video mới nhất của Hoàng Hà Angels trên TikTok</t>
+  </si>
+  <si>
+    <t>Hoàng Hà Channel - YouTube</t>
+  </si>
+  <si>
+    <t>Chọn Youtube Hoàng Hà Mobile</t>
+  </si>
+  <si>
+    <t>Chọn Instagram Hoàng Hà Mobile</t>
+  </si>
+  <si>
+    <t>Chọn Tiktok Hoàng Hà Mobile</t>
+  </si>
+  <si>
+    <t>Đăng nhập • Instagram</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -664,11 +682,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.69921875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.09765625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="37.69921875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="2" max="2" width="25.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="37.69921875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -753,12 +771,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.69921875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.59765625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.69921875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.3984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="1" max="1" width="7.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.59765625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -987,15 +1005,15 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.19921875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.19921875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="46.69921875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="2" max="2" width="21.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="46.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,9 +1046,6 @@
       <c r="D2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E2" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1045,9 +1060,6 @@
       <c r="D3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E3" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1062,9 +1074,6 @@
       <c r="D4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E4" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1079,9 +1088,6 @@
       <c r="D5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E5" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1096,9 +1102,6 @@
       <c r="D6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E6" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1113,9 +1116,6 @@
       <c r="D7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E7" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1130,9 +1130,6 @@
       <c r="D8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E8" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1147,9 +1144,6 @@
       <c r="D9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E9" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1164,9 +1158,6 @@
       <c r="D10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E10" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1181,9 +1172,6 @@
       <c r="D11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E11" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1198,9 +1186,6 @@
       <c r="D12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1215,9 +1200,6 @@
       <c r="D13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E13" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1231,9 +1213,6 @@
       </c>
       <c r="D14" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="E14" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1260,16 +1239,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.19921875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.296875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="47.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1302,9 +1281,6 @@
       <c r="D2" t="s">
         <v>82</v>
       </c>
-      <c r="E2" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1319,9 +1295,6 @@
       <c r="D3" t="s">
         <v>79</v>
       </c>
-      <c r="E3" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1336,9 +1309,6 @@
       <c r="D4" t="s">
         <v>80</v>
       </c>
-      <c r="E4" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1353,9 +1323,6 @@
       <c r="D5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E5" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1370,9 +1337,6 @@
       <c r="D6" t="s">
         <v>77</v>
       </c>
-      <c r="E6" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1387,93 +1351,121 @@
       <c r="D7" t="s">
         <v>83</v>
       </c>
-      <c r="E7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="E8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="5"/>
-      <c r="E11" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="5"/>
-      <c r="E12" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="5"/>
-      <c r="E13" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="5"/>
-      <c r="E14" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="5"/>
-      <c r="E15" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" s="5"/>
-      <c r="E16" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="5"/>
-      <c r="E17" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="5"/>
-      <c r="E18" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="5"/>
-      <c r="E19" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="5"/>
-      <c r="E20" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="5"/>
-      <c r="E21" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="87" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hoanghamobile/src/resources/data.xlsx
+++ b/hoanghamobile/src/resources/data.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Check_Password" sheetId="1" r:id="rId1"/>
-    <sheet name="Check_ThuongHieu" sheetId="2" r:id="rId2"/>
+    <sheet name="Check_Top_Title" sheetId="8" r:id="rId2"/>
     <sheet name="Check_Menu" sheetId="3" r:id="rId3"/>
-    <sheet name="Check_Title" sheetId="4" r:id="rId4"/>
-    <sheet name="Test" sheetId="5" r:id="rId5"/>
+    <sheet name="Check_4_Menu" sheetId="5" r:id="rId4"/>
+    <sheet name="Check_Search" sheetId="7" r:id="rId5"/>
+    <sheet name="Check_Thuong_Hieu" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="105">
   <si>
     <t xml:space="preserve">Number </t>
   </si>
@@ -229,9 +230,6 @@
     <t>Flask Sale</t>
   </si>
   <si>
-    <t>CT Khuyến mại</t>
-  </si>
-  <si>
     <t>Điện thoại di động giá rẻ, chính hãng - Hoàng Hà Mobile</t>
   </si>
   <si>
@@ -326,13 +324,28 @@
   </si>
   <si>
     <t>Đăng nhập • Instagram</t>
+  </si>
+  <si>
+    <t>Số TC PASSED</t>
+  </si>
+  <si>
+    <t>Số TC FAILED</t>
+  </si>
+  <si>
+    <t>Seach iPhone 13 265gb</t>
+  </si>
+  <si>
+    <t>iPhone 13 256GB</t>
+  </si>
+  <si>
+    <t>Tìm kiếm iPhone 13 256GB giá rẻ - Hoàng Hà Mobile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,16 +368,29 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -372,12 +398,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -393,10 +435,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -763,23 +809,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.59765625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -790,209 +837,108 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="8">
+        <f>COUNTIF(E:E,"PASSED")</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <f>COUNTIF(E:E,"FAILED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1002,10 +948,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1014,9 +960,11 @@
     <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="46.69921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.69921875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1032,8 +980,14 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1044,10 +998,18 @@
         <v>55</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="F2" s="8">
+        <f>COUNTIF(E:E,"PASSED")</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <f>COUNTIF(E:E,"FAILED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1058,10 +1020,11 @@
         <v>56</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1075,7 +1038,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1089,7 +1052,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1100,10 +1063,10 @@
         <v>59</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1117,7 +1080,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1131,7 +1094,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1145,7 +1108,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1156,10 +1119,10 @@
         <v>63</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1170,10 +1133,10 @@
         <v>64</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1187,7 +1150,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1198,10 +1161,10 @@
         <v>66</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1212,10 +1175,10 @@
         <v>67</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1223,10 +1186,10 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1237,21 +1200,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="87" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.69921875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1259,134 +1223,69 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="E2" s="8">
+        <f>COUNTIF(D:D,"PASSED")</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <f>COUNTIF(D:D,"FAILED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="5"/>
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1396,20 +1295,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="87" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.296875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="43.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.69921875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1417,58 +1319,296 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" t="s">
-        <v>95</v>
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="8">
+        <f>COUNTIF(E:E,"PASSED")</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <f>COUNTIF(E:E,"FAILED")</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.59765625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="8">
+        <f>COUNTIF(E:E,"PASSED")</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <f>COUNTIF(E:E,"FAILED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hoanghamobile/src/resources/data.xlsx
+++ b/hoanghamobile/src/resources/data.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Check_Password" sheetId="1" r:id="rId1"/>
+    <sheet name="Thống kê" sheetId="11" r:id="rId1"/>
     <sheet name="Check_Top_Title" sheetId="8" r:id="rId2"/>
     <sheet name="Check_Menu" sheetId="3" r:id="rId3"/>
     <sheet name="Check_4_Menu" sheetId="5" r:id="rId4"/>
     <sheet name="Check_Search" sheetId="7" r:id="rId5"/>
-    <sheet name="Check_Thuong_Hieu" sheetId="2" r:id="rId6"/>
+    <sheet name="Check_Login" sheetId="9" r:id="rId6"/>
+    <sheet name="Check_Thuong_Hieu" sheetId="2" r:id="rId7"/>
+    <sheet name="Check_Tablet" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="117">
   <si>
     <t xml:space="preserve">Number </t>
   </si>
@@ -35,33 +37,9 @@
     <t>Data_1</t>
   </si>
   <si>
-    <t>Data_2</t>
-  </si>
-  <si>
     <t>Expected</t>
   </si>
   <si>
-    <t>ForgetPassWorld Failure</t>
-  </si>
-  <si>
-    <t>ForgetPassWorld Successfully</t>
-  </si>
-  <si>
-    <t>Chuabietcode@gmail.com</t>
-  </si>
-  <si>
-    <t>chithien3203.vk.1718@gmail.com</t>
-  </si>
-  <si>
-    <t>Nhập địa chỉ email đăng ký để khởi tạo lại mật khẩu.Email Chuabietcode@gmail.com chưa được đăng ký, vui lòng chọn email khác hoặc thực hiện đăng ký tài khoản</t>
-  </si>
-  <si>
-    <t>Bạn phải nhập email</t>
-  </si>
-  <si>
-    <t>Chúng tôi đã gửi cho bạn một email hướng dẫn khởi tạo lại mật khẩu truy cập. Bạn hãy kiểm tra email và làm theo hướng dẫn.</t>
-  </si>
-  <si>
     <t>Passed/Failure</t>
   </si>
   <si>
@@ -339,24 +317,76 @@
   </si>
   <si>
     <t>Tìm kiếm iPhone 13 256GB giá rẻ - Hoàng Hà Mobile</t>
+  </si>
+  <si>
+    <t>Data Username</t>
+  </si>
+  <si>
+    <t>Data Password</t>
+  </si>
+  <si>
+    <t>Tester1</t>
+  </si>
+  <si>
+    <t>Điền username không điền pass</t>
+  </si>
+  <si>
+    <t>Điền pass không điền username</t>
+  </si>
+  <si>
+    <t>Điền đúng pass và username</t>
+  </si>
+  <si>
+    <t>TranChiThien</t>
+  </si>
+  <si>
+    <t>0964253892</t>
+  </si>
+  <si>
+    <t>Bạn phải nhập tài khoản đăng nhập.</t>
+  </si>
+  <si>
+    <t>Bạn phải nhập mật khẩu đăng nhập.</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>iPad</t>
+  </si>
+  <si>
+    <t>Chọn Lenovo</t>
+  </si>
+  <si>
+    <t>Chọn Microsoft</t>
+  </si>
+  <si>
+    <t>Chọn iPad</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Tổng TC Passed/Failed</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -375,6 +405,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -385,12 +433,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -413,38 +460,302 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -455,6 +766,1052 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Thống kê Passed/Failed</a:t>
+            </a:r>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="vi-VN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F737-49BA-A093-4681430A3B58}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F737-49BA-A093-4681430A3B58}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="vi-VN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Thống kê'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Thống kê'!$C$3:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6327-4D4D-AC27-62FEAEAC89C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="vi-VN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:blipFill>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+      <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+    </a:blipFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="vi-VN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B2:C4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="B2:C4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Tổng TC Passed/Failed" dataDxfId="3"/>
+    <tableColumn id="2" name="Column1" dataDxfId="2">
+      <calculatedColumnFormula>SUM(Check_Top_Title!$G$2,Check_Menu!$G$2,Check_4_Menu!$F$2,Check_Search!$G$2,Check_Login!$H$2,Check_Thuong_Hieu!$G$2,Check_Tablet!$G$2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G7" totalsRowShown="0">
+  <autoFilter ref="A1:G7"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Number " dataDxfId="8"/>
+    <tableColumn id="2" name="Description"/>
+    <tableColumn id="3" name="Data_1"/>
+    <tableColumn id="4" name="Expected"/>
+    <tableColumn id="5" name="Passed/Failure"/>
+    <tableColumn id="6" name="Số TC PASSED"/>
+    <tableColumn id="7" name="Số TC FAILED"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G15" totalsRowShown="0">
+  <autoFilter ref="A1:G15"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Number " dataDxfId="13"/>
+    <tableColumn id="2" name="Description"/>
+    <tableColumn id="3" name="Data"/>
+    <tableColumn id="4" name="Expected" dataDxfId="15"/>
+    <tableColumn id="5" name="Passed/Failure"/>
+    <tableColumn id="6" name="Số TC PASSED"/>
+    <tableColumn id="7" name="Số TC FAILED"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F5" totalsRowShown="0">
+  <autoFilter ref="A1:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Number " dataDxfId="12"/>
+    <tableColumn id="2" name="Description"/>
+    <tableColumn id="3" name="Expected"/>
+    <tableColumn id="4" name="Passed/Failure"/>
+    <tableColumn id="5" name="Số TC PASSED"/>
+    <tableColumn id="6" name="Số TC FAILED"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G2" totalsRowShown="0">
+  <autoFilter ref="A1:G2"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Number " dataDxfId="11"/>
+    <tableColumn id="2" name="Description"/>
+    <tableColumn id="3" name="Data"/>
+    <tableColumn id="4" name="Expected"/>
+    <tableColumn id="5" name="Passed/Failure"/>
+    <tableColumn id="6" name="Số TC PASSED" dataCellStyle="Calculation">
+      <calculatedColumnFormula>COUNTIF(E:E,"PASSED")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Số TC FAILED" dataCellStyle="Calculation">
+      <calculatedColumnFormula>COUNTIF(E:E,"FAILED")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:H4" totalsRowShown="0">
+  <autoFilter ref="A1:H4"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Number " dataDxfId="14"/>
+    <tableColumn id="2" name="Description"/>
+    <tableColumn id="3" name="Data Username"/>
+    <tableColumn id="4" name="Data Password"/>
+    <tableColumn id="5" name="Expected"/>
+    <tableColumn id="6" name="Passed/Failure"/>
+    <tableColumn id="7" name="Số TC PASSED"/>
+    <tableColumn id="8" name="Số TC FAILED"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:G15" totalsRowShown="0">
+  <autoFilter ref="A1:G15"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Number " dataDxfId="10"/>
+    <tableColumn id="2" name="Description"/>
+    <tableColumn id="3" name="Data"/>
+    <tableColumn id="4" name="Expected"/>
+    <tableColumn id="5" name="Passed/Failure"/>
+    <tableColumn id="6" name="Số TC PASSED"/>
+    <tableColumn id="7" name="Số TC FAILED"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:G8" totalsRowShown="0">
+  <autoFilter ref="A1:G8"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Number " dataDxfId="9"/>
+    <tableColumn id="2" name="Description"/>
+    <tableColumn id="3" name="Data"/>
+    <tableColumn id="4" name="Expected"/>
+    <tableColumn id="5" name="Passed/Failure"/>
+    <tableColumn id="6" name="Số TC PASSED"/>
+    <tableColumn id="7" name="Số TC FAILED"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -720,90 +2077,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="37.69921875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="2" spans="2:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="7">
+        <f>SUM(Check_Top_Title!$F$2,Check_Menu!$F$2,Check_4_Menu!$E$2,Check_Search!$F$2,Check_Thuong_Hieu!$F$2,Check_Login!$G$2,Check_Tablet!$F$2)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="10">
+        <f>SUM(Check_Top_Title!$G$2,Check_Menu!$G$2,Check_4_Menu!$F$2,Check_Search!$G$2,Check_Login!$H$2,Check_Thuong_Hieu!$G$2,Check_Tablet!$G$2)</f>
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -812,18 +2130,18 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="44.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -837,34 +2155,37 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>101</v>
+      <c r="F1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
       </c>
       <c r="F2" s="8">
-        <f>COUNTIF(E:E,"PASSED")</f>
-        <v>0</v>
+        <f>COUNTIF($E:$E,"PASSED")</f>
+        <v>6</v>
       </c>
       <c r="G2" s="8">
         <f>COUNTIF(E:E,"FAILED")</f>
@@ -872,77 +2193,105 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="FAILED">
+      <formula>NOT(ISERROR(SEARCH("FAILED",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="FAILED">
+      <formula>NOT(ISERROR(SEARCH("FAILED",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -951,17 +2300,18 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.19921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="46.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -972,229 +2322,279 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>101</v>
+      <c r="F1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
       </c>
       <c r="F2" s="8">
         <f>COUNTIF(E:E,"PASSED")</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" s="8">
         <f>COUNTIF(E:E,"FAILED")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C11" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C12" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D12" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C13" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C14" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>75</v>
+      <c r="D15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="FAILED">
+      <formula>NOT(ISERROR(SEARCH("FAILED",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1203,16 +2603,17 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.296875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="87" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1223,73 +2624,98 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>101</v>
+      <c r="E1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
       </c>
       <c r="E2" s="8">
         <f>COUNTIF(D:D,"PASSED")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="8">
         <f>COUNTIF(D:D,"FAILED")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="FAILED">
+      <formula>NOT(ISERROR(SEARCH("FAILED",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="FAILED">
+      <formula>NOT(ISERROR(SEARCH("FAILED",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1298,17 +2724,18 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.296875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="43.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="44.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1319,37 +2746,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>101</v>
+      <c r="F1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
       </c>
       <c r="F2" s="8">
         <f>COUNTIF(E:E,"PASSED")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="8">
         <f>COUNTIF(E:E,"FAILED")</f>
@@ -1357,28 +2787,158 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="FAILED">
+      <formula>NOT(ISERROR(SEARCH("FAILED",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="8">
+        <f>COUNTIF(F:F,"PASSED")</f>
+        <v>3</v>
+      </c>
+      <c r="H2" s="8">
+        <f>COUNTIF(F:F,"FAILED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="FAILED">
+      <formula>NOT(ISERROR(SEARCH("FAILED",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="14.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.59765625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1389,37 +2949,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>101</v>
+      <c r="F1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
       </c>
       <c r="F2" s="8">
         <f>COUNTIF(E:E,"PASSED")</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G2" s="8">
         <f>COUNTIF(E:E,"FAILED")</f>
@@ -1427,188 +2990,418 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>18</v>
       </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="FAILED">
+      <formula>NOT(ISERROR(SEARCH("FAILED",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.19921875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="8">
+        <f>COUNTIF(E:E,"PASSED")</f>
+        <v>7</v>
+      </c>
+      <c r="G2" s="8">
+        <f>COUNTIF(E:E,"FAILED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
+      <c r="E8" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="FAILED">
+      <formula>NOT(ISERROR(SEARCH("FAILED",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/hoanghamobile/src/resources/data.xlsx
+++ b/hoanghamobile/src/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Thống kê" sheetId="11" r:id="rId1"/>
@@ -527,8 +527,70 @@
   </cellStyles>
   <dxfs count="24">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFFFF00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -537,29 +599,39 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
+        <sz val="11"/>
+        <color auto="1"/>
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -642,43 +714,8 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -687,73 +724,36 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
+        <sz val="14"/>
+        <color theme="1"/>
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFFFF00"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1686,11 +1686,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B2:C4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B2:C4" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="B2:C4"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Tổng TC Passed/Failed" dataDxfId="3"/>
-    <tableColumn id="2" name="Column1" dataDxfId="2">
+    <tableColumn id="1" name="Tổng TC Passed/Failed" dataDxfId="18"/>
+    <tableColumn id="2" name="Column1" dataDxfId="17">
       <calculatedColumnFormula>SUM(Check_Top_Title!$G$2,Check_Menu!$G$2,Check_4_Menu!$F$2,Check_Search!$G$2,Check_Login!$H$2,Check_Thuong_Hieu!$G$2,Check_Tablet!$G$2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1702,7 +1702,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G7" totalsRowShown="0">
   <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Number " dataDxfId="8"/>
+    <tableColumn id="1" name="Number " dataDxfId="14"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Data_1"/>
     <tableColumn id="4" name="Expected"/>
@@ -1718,10 +1718,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G15" totalsRowShown="0">
   <autoFilter ref="A1:G15"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Number " dataDxfId="13"/>
+    <tableColumn id="1" name="Number " dataDxfId="12"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Data"/>
-    <tableColumn id="4" name="Expected" dataDxfId="15"/>
+    <tableColumn id="4" name="Expected" dataDxfId="11"/>
     <tableColumn id="5" name="Passed/Failure"/>
     <tableColumn id="6" name="Số TC PASSED"/>
     <tableColumn id="7" name="Số TC FAILED"/>
@@ -1734,7 +1734,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F5" totalsRowShown="0">
   <autoFilter ref="A1:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Number " dataDxfId="12"/>
+    <tableColumn id="1" name="Number " dataDxfId="8"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Expected"/>
     <tableColumn id="4" name="Passed/Failure"/>
@@ -1749,7 +1749,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G2" totalsRowShown="0">
   <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Number " dataDxfId="11"/>
+    <tableColumn id="1" name="Number " dataDxfId="6"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Data"/>
     <tableColumn id="4" name="Expected"/>
@@ -1769,7 +1769,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:H4" totalsRowShown="0">
   <autoFilter ref="A1:H4"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Number " dataDxfId="14"/>
+    <tableColumn id="1" name="Number " dataDxfId="4"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Data Username"/>
     <tableColumn id="4" name="Data Password"/>
@@ -1786,7 +1786,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:G15" totalsRowShown="0">
   <autoFilter ref="A1:G15"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Number " dataDxfId="10"/>
+    <tableColumn id="1" name="Number " dataDxfId="2"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Data"/>
     <tableColumn id="4" name="Expected"/>
@@ -1802,7 +1802,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:G8" totalsRowShown="0">
   <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Number " dataDxfId="9"/>
+    <tableColumn id="1" name="Number " dataDxfId="0"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Data"/>
     <tableColumn id="4" name="Expected"/>
@@ -2079,7 +2079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2279,12 +2279,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E7">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH("FAILED",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH("FAILED",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2299,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2586,7 +2586,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH("FAILED",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2702,12 +2702,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH("FAILED",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH("FAILED",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2788,7 +2788,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH("FAILED",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2805,7 +2805,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2910,7 +2910,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH("FAILED",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2927,7 +2927,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3212,7 +3212,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH("FAILED",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3394,7 +3394,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH("FAILED",E1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/hoanghamobile/src/resources/data.xlsx
+++ b/hoanghamobile/src/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Thống kê" sheetId="11" r:id="rId1"/>
@@ -2079,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2299,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/hoanghamobile/src/resources/data.xlsx
+++ b/hoanghamobile/src/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Thống kê" sheetId="11" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="116">
   <si>
     <t xml:space="preserve">Number </t>
   </si>
@@ -301,9 +301,6 @@
     <t>Chọn Tiktok Hoàng Hà Mobile</t>
   </si>
   <si>
-    <t>Đăng nhập • Instagram</t>
-  </si>
-  <si>
     <t>Số TC PASSED</t>
   </si>
   <si>
@@ -376,14 +373,14 @@
     <t>Tổng TC Passed/Failed</t>
   </si>
   <si>
-    <t>Column1</t>
+    <t>Hoàng Hà Mobile (@hoanghamobile) • Instagram photos and videos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +418,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -503,12 +507,11 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -519,13 +522,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="23">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -632,39 +642,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1686,129 +1663,111 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B2:C4" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
-  <autoFilter ref="B2:C4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Tổng TC Passed/Failed" dataDxfId="18"/>
-    <tableColumn id="2" name="Column1" dataDxfId="17">
-      <calculatedColumnFormula>SUM(Check_Top_Title!$G$2,Check_Menu!$G$2,Check_4_Menu!$F$2,Check_Search!$G$2,Check_Login!$H$2,Check_Thuong_Hieu!$G$2,Check_Tablet!$G$2)</calculatedColumnFormula>
-    </tableColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B2:B4" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="B2:B4"/>
+  <sortState ref="B3:B4">
+    <sortCondition descending="1" ref="B2:B4"/>
+  </sortState>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Tổng TC Passed/Failed" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G7" totalsRowShown="0">
-  <autoFilter ref="A1:G7"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Number " dataDxfId="14"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Data_1"/>
     <tableColumn id="4" name="Expected"/>
     <tableColumn id="5" name="Passed/Failure"/>
-    <tableColumn id="6" name="Số TC PASSED"/>
-    <tableColumn id="7" name="Số TC FAILED"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G15" totalsRowShown="0">
-  <autoFilter ref="A1:G15"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E15" totalsRowShown="0">
+  <autoFilter ref="A1:E15"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Number " dataDxfId="12"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Data"/>
     <tableColumn id="4" name="Expected" dataDxfId="11"/>
     <tableColumn id="5" name="Passed/Failure"/>
-    <tableColumn id="6" name="Số TC PASSED"/>
-    <tableColumn id="7" name="Số TC FAILED"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F5" totalsRowShown="0">
-  <autoFilter ref="A1:F5"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="Number " dataDxfId="8"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Expected"/>
     <tableColumn id="4" name="Passed/Failure"/>
-    <tableColumn id="5" name="Số TC PASSED"/>
-    <tableColumn id="6" name="Số TC FAILED"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G2" totalsRowShown="0">
-  <autoFilter ref="A1:G2"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E2" totalsRowShown="0">
+  <autoFilter ref="A1:E2"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Number " dataDxfId="6"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Data"/>
     <tableColumn id="4" name="Expected"/>
     <tableColumn id="5" name="Passed/Failure"/>
-    <tableColumn id="6" name="Số TC PASSED" dataCellStyle="Calculation">
-      <calculatedColumnFormula>COUNTIF(E:E,"PASSED")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="Số TC FAILED" dataCellStyle="Calculation">
-      <calculatedColumnFormula>COUNTIF(E:E,"FAILED")</calculatedColumnFormula>
-    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:H4" totalsRowShown="0">
-  <autoFilter ref="A1:H4"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:F4" totalsRowShown="0">
+  <autoFilter ref="A1:F4"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Number " dataDxfId="4"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Data Username"/>
     <tableColumn id="4" name="Data Password"/>
     <tableColumn id="5" name="Expected"/>
     <tableColumn id="6" name="Passed/Failure"/>
-    <tableColumn id="7" name="Số TC PASSED"/>
-    <tableColumn id="8" name="Số TC FAILED"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:G15" totalsRowShown="0">
-  <autoFilter ref="A1:G15"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:E15" totalsRowShown="0">
+  <autoFilter ref="A1:E15"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Number " dataDxfId="2"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Data"/>
     <tableColumn id="4" name="Expected"/>
     <tableColumn id="5" name="Passed/Failure"/>
-    <tableColumn id="6" name="Số TC PASSED"/>
-    <tableColumn id="7" name="Số TC FAILED"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:G8" totalsRowShown="0">
-  <autoFilter ref="A1:G8"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Number " dataDxfId="0"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Data"/>
     <tableColumn id="4" name="Expected"/>
     <tableColumn id="5" name="Passed/Failure"/>
-    <tableColumn id="6" name="Số TC PASSED"/>
-    <tableColumn id="7" name="Số TC FAILED"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2079,38 +2038,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="31.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.59765625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="B2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="2:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="12">
         <f>SUM(Check_Top_Title!$F$2,Check_Menu!$F$2,Check_4_Menu!$E$2,Check_Search!$F$2,Check_Thuong_Hieu!$F$2,Check_Login!$G$2,Check_Tablet!$F$2)</f>
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="B4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="12">
         <f>SUM(Check_Top_Title!$G$2,Check_Menu!$G$2,Check_4_Menu!$F$2,Check_Search!$G$2,Check_Login!$H$2,Check_Thuong_Hieu!$G$2,Check_Tablet!$G$2)</f>
         <v>2</v>
       </c>
@@ -2130,7 +2087,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2161,14 +2118,14 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2181,19 +2138,19 @@
         <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="8">
+        <v>112</v>
+      </c>
+      <c r="F2" s="7">
         <f>COUNTIF($E:$E,"PASSED")</f>
         <v>6</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <f>COUNTIF(E:E,"FAILED")</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2206,11 +2163,11 @@
         <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2223,11 +2180,11 @@
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2240,11 +2197,11 @@
         <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2257,11 +2214,11 @@
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2274,7 +2231,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2300,12 +2257,12 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21.19921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="47.5" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2331,14 +2288,14 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2351,19 +2308,19 @@
         <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="8">
-        <f>COUNTIF(E:E,"PASSED")</f>
+        <v>112</v>
+      </c>
+      <c r="F2" s="7">
+        <f>COUNTIF($E:$E,"PASSED")</f>
         <v>13</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <f>COUNTIF(E:E,"FAILED")</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2376,12 +2333,12 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2394,11 +2351,11 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2411,11 +2368,11 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2428,11 +2385,11 @@
         <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2445,11 +2402,11 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -2462,11 +2419,11 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2479,11 +2436,11 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -2496,11 +2453,11 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -2513,11 +2470,11 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -2530,11 +2487,11 @@
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -2547,11 +2504,11 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -2564,11 +2521,11 @@
         <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -2581,7 +2538,7 @@
         <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2603,12 +2560,12 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="28.296875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="87" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="15.8984375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2630,14 +2587,14 @@
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2647,19 +2604,19 @@
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="8">
+        <v>112</v>
+      </c>
+      <c r="E2" s="7">
         <f>COUNTIF(D:D,"PASSED")</f>
         <v>3</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <f>COUNTIF(D:D,"FAILED")</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2669,25 +2626,25 @@
         <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2697,7 +2654,7 @@
         <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2724,12 +2681,12 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20.296875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="44.19921875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2755,33 +2712,33 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>94</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>95</v>
       </c>
-      <c r="D2" t="s">
-        <v>96</v>
-      </c>
       <c r="E2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="8">
+        <v>112</v>
+      </c>
+      <c r="F2" s="7">
         <f>COUNTIF(E:E,"PASSED")</f>
         <v>1</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <f>COUNTIF(E:E,"FAILED")</f>
         <v>0</v>
       </c>
@@ -2805,12 +2762,12 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16.3984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2828,10 +2785,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
         <v>97</v>
-      </c>
-      <c r="D1" t="s">
-        <v>98</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -2840,72 +2797,72 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="8">
+        <v>112</v>
+      </c>
+      <c r="G2" s="7">
         <f>COUNTIF(F:F,"PASSED")</f>
         <v>3</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <f>COUNTIF(F:F,"FAILED")</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>101</v>
       </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>102</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2926,8 +2883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2958,14 +2915,14 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2978,19 +2935,19 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="8">
+        <v>112</v>
+      </c>
+      <c r="F2" s="7">
         <f>COUNTIF(E:E,"PASSED")</f>
         <v>14</v>
       </c>
-      <c r="G2" s="8">
-        <f>COUNTIF(E:E,"FAILED")</f>
+      <c r="G2" s="7">
+        <f t="shared" ref="G2" si="0">COUNTIF(E:E,"FAILED")</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -3003,11 +2960,11 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -3020,11 +2977,11 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -3037,11 +2994,11 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -3054,11 +3011,11 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -3071,11 +3028,11 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -3088,11 +3045,11 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -3105,11 +3062,11 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -3122,11 +3079,11 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -3139,11 +3096,11 @@
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -3156,11 +3113,11 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -3173,11 +3130,11 @@
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -3190,11 +3147,11 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -3207,7 +3164,7 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3228,12 +3185,12 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="13.296875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="11.19921875" customWidth="1" collapsed="1"/>
@@ -3259,56 +3216,56 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="8">
+        <v>112</v>
+      </c>
+      <c r="F2" s="7">
         <f>COUNTIF(E:E,"PASSED")</f>
         <v>7</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <f>COUNTIF(E:E,"FAILED")</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -3321,28 +3278,28 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -3355,11 +3312,11 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -3372,11 +3329,11 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -3389,7 +3346,7 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/hoanghamobile/src/resources/data.xlsx
+++ b/hoanghamobile/src/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="634"/>
   </bookViews>
   <sheets>
     <sheet name="Thống kê" sheetId="11" r:id="rId1"/>
@@ -2038,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2257,7 +2257,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2560,7 +2560,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2681,7 +2681,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2762,7 +2762,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2883,8 +2883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3185,7 +3185,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
